--- a/AdditionalMetrics/AdditionalMetricsExperiments_1_2_3_Architecture_2_Server.xlsx
+++ b/AdditionalMetrics/AdditionalMetricsExperiments_1_2_3_Architecture_2_Server.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\INVESTIGACION\PAPERS\2024 ECSA\EnergyConsumption_IoTMonitoringEdgeArchitectures\AdditionalMetrics\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\INVESTIGACION\PAPERS\ACEPTADOS\2024 ECSA\EnergyConsumption_IoTMonitoringEdgeArchitectures\AdditionalMetrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1796,9 +1796,6 @@
     <t>T_mem_RAM (bytes)</t>
   </si>
   <si>
-    <t>RSS (Resisden Set Size) (bytes)</t>
-  </si>
-  <si>
     <t>VSZ (Virtual Set Size) (bytes)</t>
   </si>
   <si>
@@ -1812,6 +1809,9 @@
   </si>
   <si>
     <t>Experiment 3</t>
+  </si>
+  <si>
+    <t>RSS (Resident Set Size) (bytes)</t>
   </si>
 </sst>
 </file>
@@ -2167,19 +2167,19 @@
   <dimension ref="A1:H952"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J941" sqref="J941"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.7109375" customWidth="1"/>
-    <col min="3" max="3" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="29.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="30.140625" customWidth="1"/>
-    <col min="7" max="7" width="14.140625" customWidth="1"/>
-    <col min="8" max="8" width="14.28515625" customWidth="1"/>
+    <col min="2" max="2" width="9.7265625" customWidth="1"/>
+    <col min="3" max="3" width="14.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.7265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.1796875" customWidth="1"/>
+    <col min="7" max="7" width="14.1796875" customWidth="1"/>
+    <col min="8" max="8" width="14.26953125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -2206,16 +2206,16 @@
         <v>580</v>
       </c>
       <c r="E2" s="4" t="s">
+        <v>586</v>
+      </c>
+      <c r="F2" s="4" t="s">
         <v>581</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="G2" s="5" t="s">
         <v>582</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="H2" s="5" t="s">
         <v>583</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>584</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -4976,7 +4976,7 @@
     </row>
     <row r="215" spans="1:8">
       <c r="A215" s="6" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -8985,7 +8985,7 @@
     </row>
     <row r="525" spans="1:8">
       <c r="A525" s="7" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="526" spans="1:8">
